--- a/AV1 NF 2022.1 Programação Python(1-4).xlsx
+++ b/AV1 NF 2022.1 Programação Python(1-4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YduqsArea1\14 WydenArea1Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A6306-65E4-4CF8-81F1-FF0EB45483A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE36A8F3-FFE8-4727-829D-0D95EE0FFC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>Nome</t>
-  </si>
-  <si>
-    <t>Total de pontos</t>
-  </si>
-  <si>
-    <t>Comentários do teste</t>
   </si>
   <si>
     <t>Hora de postagem da nota</t>
@@ -356,6 +350,12 @@
   </si>
   <si>
     <t>App CRUD = 2</t>
+  </si>
+  <si>
+    <t>AV2</t>
+  </si>
+  <si>
+    <t>AV1</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de conclusão" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nome" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total de pontos" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comentários do teste" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AV1" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="AV2" dataDxfId="16"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Hora de postagem da nota" dataDxfId="15"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nome do Aluno" dataDxfId="14"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Pontos – Nome do Aluno" dataDxfId="13"/>
@@ -856,7 +856,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,58 +881,58 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -946,42 +946,42 @@
         <v>44695.669456018499</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="6">
         <v>33</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1">
         <v>44695.844097222202</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2">
@@ -999,42 +999,42 @@
         <v>44695.740451388898</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6">
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1">
         <v>44695.844097222202</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P3">
         <v>12</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3">
@@ -1052,7 +1052,7 @@
         <v>44695.785162036998</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="6">
@@ -1065,29 +1065,29 @@
         <v>44695.844097222202</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P4">
         <v>20</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4">
@@ -1105,7 +1105,7 @@
         <v>44695.793715277803</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6">
@@ -1118,29 +1118,29 @@
         <v>44695.844097222202</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5">
@@ -1158,7 +1158,7 @@
         <v>44695.823067129597</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6">
@@ -1171,29 +1171,29 @@
         <v>44695.844097222202</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>13</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6">
@@ -1203,19 +1203,19 @@
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E10" s="8"/>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E12" s="11"/>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
